--- a/Documents/コーヒー問屋業務要件.xlsx
+++ b/Documents/コーヒー問屋業務要件.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_kato\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_kato\Documents\GitHub\wdp_pepper\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,7 +369,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -379,12 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +669,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,13 +695,13 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
@@ -713,56 +713,56 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -770,15 +770,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
@@ -789,10 +786,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -801,14 +798,14 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
@@ -819,10 +816,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -831,14 +828,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,10 +846,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -860,13 +857,15 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,10 +876,10 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -891,10 +890,10 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,12 +904,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -921,10 +920,10 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,10 +934,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -949,10 +948,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,10 +962,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -977,10 +976,10 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,10 +990,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1005,10 +1004,10 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,10 +1018,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1033,10 +1032,10 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,199 +1046,199 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="13"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="13"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="13"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="8" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="8" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="8" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="8" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="8" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
@@ -1248,18 +1247,41 @@
       <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="D17:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B29"/>
     <mergeCell ref="B30:B33"/>
@@ -1276,29 +1298,6 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/コーヒー問屋業務要件.xlsx
+++ b/Documents/コーヒー問屋業務要件.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>来店</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>商品確認</t>
-  </si>
-  <si>
-    <t>料金受領</t>
   </si>
   <si>
     <t>お帰り</t>
@@ -205,7 +202,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーヒー問屋業務要件</t>
+    <t>料金受領</t>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ち行列をなくしたい。</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】</t>
+    <rPh sb="1" eb="3">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー問屋業務要件（既存）</t>
+    <rPh sb="11" eb="13">
+      <t>キゾン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -213,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +280,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,21 +404,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -686,34 +727,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -727,12 +768,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -741,7 +782,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -755,27 +796,28 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,14 +828,14 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -802,10 +844,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
@@ -816,14 +858,14 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -832,10 +874,10 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,14 +888,14 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -862,10 +904,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,24 +918,24 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,26 +946,26 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,24 +976,24 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,24 +1004,24 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,24 +1032,24 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,24 +1060,24 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1088,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1058,21 +1100,21 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1082,11 +1124,9 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1096,9 +1136,11 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
+      <c r="B31" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C31" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1108,9 +1150,9 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1120,9 +1162,9 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1132,11 +1174,9 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B34" s="14"/>
       <c r="C34" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1146,13 +1186,13 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="B35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="7"/>
@@ -1160,10 +1200,12 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="D36" s="9" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -1172,10 +1214,10 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -1184,10 +1226,10 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -1196,10 +1238,10 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -1208,10 +1250,10 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -1220,8 +1262,8 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="9" t="s">
         <v>29</v>
       </c>
@@ -1232,8 +1274,8 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="9" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1287,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>25</v>
@@ -1257,24 +1299,35 @@
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
     </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C7:C26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="C6:F6"/>
@@ -1282,22 +1335,21 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="D17:D26"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="C7:C26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/コーヒー問屋業務要件.xlsx
+++ b/Documents/コーヒー問屋業務要件.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_kato\Documents\GitHub\wdp_pepper\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Pepper2\wdp_pepper\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10140" tabRatio="930" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10140" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="コーヒー問屋業務要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>来店</t>
   </si>
@@ -465,6 +465,31 @@
     <t>お帰り</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御用聞き</t>
+    <rPh sb="0" eb="3">
+      <t>ゴヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -650,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,13 +724,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -717,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -729,23 +775,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,7 +2043,7 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>知りたい</a:t>
+              <a:t>知りたいようようあああああああｆｆｆｆｆｆｆｆｓｓｓｓｓ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -13920,10 +13951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I65"/>
+  <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13936,26 +13967,28 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.375" customWidth="1"/>
     <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75">
+    <row r="1" spans="2:11" ht="18.75">
       <c r="B1" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="14.25">
+    <row r="2" spans="2:11" ht="14.25">
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
@@ -13963,23 +13996,33 @@
         <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -13988,241 +14031,319 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="17"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19" t="s">
+    <row r="13" spans="2:11">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="29" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="29" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="17"/>
-      <c r="C19" s="16" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+    <row r="20" spans="2:11">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="2:11">
+      <c r="B23" s="23"/>
+      <c r="C23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:11">
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
@@ -14232,33 +14353,39 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="11" t="s">
@@ -14267,12 +14394,14 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+    <row r="27" spans="2:11">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="11" t="s">
         <v>7</v>
       </c>
@@ -14281,12 +14410,18 @@
       <c r="I27" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="J27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -14297,12 +14432,18 @@
       <c r="I28" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="J28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+    <row r="29" spans="2:11">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11" t="s">
         <v>7</v>
       </c>
@@ -14311,12 +14452,18 @@
       <c r="I29" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="J29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
+    <row r="30" spans="2:11">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -14327,12 +14474,18 @@
       <c r="I30" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="J30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+    <row r="31" spans="2:11">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="11" t="s">
         <v>7</v>
       </c>
@@ -14341,12 +14494,18 @@
       <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="J31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+    <row r="32" spans="2:11">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -14357,12 +14516,18 @@
       <c r="I32" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="J32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+    <row r="33" spans="2:11">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="11" t="s">
         <v>7</v>
       </c>
@@ -14371,12 +14536,18 @@
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="J33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+    <row r="34" spans="2:11">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="11" t="s">
@@ -14385,12 +14556,14 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+    <row r="35" spans="2:11">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="11" t="s">
         <v>7</v>
       </c>
@@ -14399,14 +14572,20 @@
       <c r="I35" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28" t="s">
+    <row r="36" spans="2:11">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="11" t="s">
@@ -14415,12 +14594,14 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+    <row r="37" spans="2:11">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="11" t="s">
         <v>7</v>
       </c>
@@ -14429,12 +14610,18 @@
       <c r="I37" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="J37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+    <row r="38" spans="2:11">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="11" t="s">
@@ -14443,12 +14630,14 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+    <row r="39" spans="2:11">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="11" t="s">
         <v>7</v>
       </c>
@@ -14457,12 +14646,18 @@
       <c r="I39" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="J39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="27" t="s">
+    <row r="40" spans="2:11">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="11" t="s">
@@ -14471,12 +14666,14 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+    <row r="41" spans="2:11">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="11" t="s">
         <v>7</v>
       </c>
@@ -14485,12 +14682,18 @@
       <c r="I41" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="J41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="11" t="s">
@@ -14499,12 +14702,14 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+    <row r="43" spans="2:11">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="11" t="s">
         <v>7</v>
       </c>
@@ -14513,12 +14718,18 @@
       <c r="I43" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="J43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="27" t="s">
+    <row r="44" spans="2:11">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="11" t="s">
@@ -14527,12 +14738,14 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+    <row r="45" spans="2:11">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="11" t="s">
         <v>7</v>
       </c>
@@ -14541,206 +14754,244 @@
       <c r="I45" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="28"/>
-      <c r="C46" s="26" t="s">
+    <row r="46" spans="2:11">
+      <c r="B46" s="18"/>
+      <c r="C46" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="28"/>
-      <c r="C47" s="26" t="s">
+    <row r="47" spans="2:11">
+      <c r="B47" s="18"/>
+      <c r="C47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="28"/>
-      <c r="C48" s="26" t="s">
+    <row r="48" spans="2:11">
+      <c r="B48" s="18"/>
+      <c r="C48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="28"/>
-      <c r="C49" s="26" t="s">
+    <row r="49" spans="2:11">
+      <c r="B49" s="18"/>
+      <c r="C49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="28" t="s">
+    <row r="50" spans="2:11">
+      <c r="B50" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="28"/>
-      <c r="C51" s="26" t="s">
+    <row r="51" spans="2:11">
+      <c r="B51" s="18"/>
+      <c r="C51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="28"/>
-      <c r="C52" s="26" t="s">
+    <row r="52" spans="2:11">
+      <c r="B52" s="18"/>
+      <c r="C52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="28"/>
-      <c r="C53" s="26" t="s">
+    <row r="53" spans="2:11">
+      <c r="B53" s="18"/>
+      <c r="C53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="2:11">
+      <c r="B54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28" t="s">
+    <row r="55" spans="2:11">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="26" t="s">
+    <row r="56" spans="2:11">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="26" t="s">
+    <row r="57" spans="2:11">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="26" t="s">
+    <row r="58" spans="2:11">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="26" t="s">
+    <row r="59" spans="2:11">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="26" t="s">
+    <row r="60" spans="2:11">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="26" t="s">
+    <row r="61" spans="2:11">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:11">
       <c r="B64" t="s">
         <v>44</v>
       </c>
@@ -14752,6 +15003,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B6:B23"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="B25:B49"/>
     <mergeCell ref="B50:B53"/>
@@ -14768,50 +15063,6 @@
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B5:B23"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14823,8 +15074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14846,8 +15097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14891,7 +15142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -14912,7 +15163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -14934,7 +15187,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14957,7 +15210,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14979,7 +15232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
